--- a/DSD_2024_2025/output_files/2024_01_26 DSD_inform_202324_v6-1-1.xlsx (Dados MCaron e Carlos)_compact_ML_bloq.xlsx
+++ b/DSD_2024_2025/output_files/2024_01_26 DSD_inform_202324_v6-1-1.xlsx (Dados MCaron e Carlos)_compact_ML_bloq.xlsx
@@ -9,19 +9,19 @@
   <sheets>
     <sheet name="RH" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="uc_2024-25" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="uc_AreaCient" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="uc_meta" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="cod_curso" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="RH_meta" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="RH_posicao" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="AC_meta" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="AC_meta" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="uc_AreaCient" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="uc_meta" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RH_posicao" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="cod_curso" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="RH_meta" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RH'!$A$1:$H$325</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'uc_2024-25'!$A$1:$AA$416</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'uc_AreaCient'!$A$1:$C$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'cod_curso'!$A$1:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'RH_posicao'!$A$1:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'uc_AreaCient'!$A$1:$C$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'RH_posicao'!$A$1:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'cod_curso'!$A$1:$D$28</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -48208,7 +48208,7 @@
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="0" scenarios="0" formatColumns="0" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="0"/>
   <autoFilter ref="A1:AA416"/>
   <dataValidations count="1">
-    <dataValidation sqref="E2:E416 Z2:Z416" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+    <dataValidation sqref="E2:E416 Z2:Z416" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>'RH'!$B$2:$B$325</formula1>
     </dataValidation>
   </dataValidations>
@@ -48217,6 +48217,153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="150" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>classificacao_area</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CNAEF</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Classificacao_Nacional_das_Areas_de_Educacao_e_Formacao_(CNAEF),_Portaria_n.o_256/2005_de_16_de_Marco._Classificacao:_nivel_1,_2_e_3_(codigo:_3_digitos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v/>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Classificação de Domínios Científicos e Tecnológicos, 2007 (FOS), Manual de Frascati. Classificação: Grandes Áreas, Subgrandes Áreas e Áreas (código: 2 dígitos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v/>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CNAEF, FOS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Classificação comum a CNAEF e FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v/>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>área de formação</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Área de formação. Não coincide com códigos CNAEF ou FOS mas enquadra-se num dos níveis/áreas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v/>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>externa ao ISA (CNAEF)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Área Científica de outra escola (CNAEF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v/>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>externa ao ISA (CNAEF, FOS)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Área Científica de outra escola (CNAEF, FOS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v/>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>externa ao ISA (área de formação)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Área Científica de outra escola (área de formação)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v/>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>associação de áreas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Associação de diferentes áreas científicas atríbuidas a uma determinada uc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="0" scenarios="0" formatColumns="0" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -49144,7 +49291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -49720,7 +49867,399 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>posicao</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>h_min</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>h_max</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>obs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ver ETI (horas a leccionar por docente convidado corresponde ao valor ETI contratado)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CEEC Individual - 5ª edição</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CEEC Institucional 2.ª Edição</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Contrato-Programa FCT DL57</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FCT CEEC 2017</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FCT CEEC 2018</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FCT CEEC 3º Ed/2021</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FCT CEEC 4º Ed/2022</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Investigador Auxiliar</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Investigador Auxiliar (Agregação ou Habilitação)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Investigador Auxiliar Convidado</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Investigador Doutorado Projeto</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Investigador Doutorado Projeto (Investigador Principal)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Investigador Principal com Agregação</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Professor Associado</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Professor Associado com Agregação</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Professor Auxiliar</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Professor Auxiliar com Agregação</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9</v>
+      </c>
+      <c r="D19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Professor Auxiliar Convidado</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ver ETI (horas a leccionar por docente convidado corresponde ao valor ETI contratado)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Professor Catedrático</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Técnico Superior</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v/>
+      </c>
+      <c r="C22" t="n">
+        <v/>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Não existe enquadramento jurídico para leccionação</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="0" scenarios="0" formatColumns="0" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="0"/>
+  <autoFilter ref="A1:D22"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -50304,7 +50843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -51083,543 +51622,4 @@
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="0" scenarios="0" formatColumns="0" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="5" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>posicao</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>h_min</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>h_max</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>obs</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ver ETI (horas a leccionar por docente convidado corresponde ao valor ETI contratado)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CEEC Individual - 5ª edição</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CEEC Institucional 2.ª Edição</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Contrato-Programa FCT DL57</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FCT CEEC 2017</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>FCT CEEC 2018</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>FCT CEEC 3º Ed/2021</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FCT CEEC 4º Ed/2022</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Investigador Auxiliar</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Investigador Auxiliar (Agregação ou Habilitação)</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Investigador Auxiliar Convidado</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Investigador Doutorado Projeto</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Investigador Doutorado Projeto (Investigador Principal)</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Investigador Principal com Agregação</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Professor Associado</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Professor Associado com Agregação</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Professor Auxiliar</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Professor Auxiliar com Agregação</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D19" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Professor Auxiliar Convidado</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ver ETI (horas a leccionar por docente convidado corresponde ao valor ETI contratado)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Professor Catedrático</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Técnico Superior</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v/>
-      </c>
-      <c r="C22" t="n">
-        <v/>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Não existe enquadramento jurídico para leccionação</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="0" scenarios="0" formatColumns="0" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="0"/>
-  <autoFilter ref="A1:D22"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="150" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>classificacao_area</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CNAEF</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Classificacao_Nacional_das_Areas_de_Educacao_e_Formacao_(CNAEF),_Portaria_n.o_256/2005_de_16_de_Marco._Classificacao:_nivel_1,_2_e_3_(codigo:_3_digitos)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v/>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Classificação de Domínios Científicos e Tecnológicos, 2007 (FOS), Manual de Frascati. Classificação: Grandes Áreas, Subgrandes Áreas e Áreas (código: 2 dígitos)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v/>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CNAEF, FOS</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Classificação comum a CNAEF e FOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v/>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>área de formação</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Área de formação. Não coincide com códigos CNAEF ou FOS mas enquadra-se num dos níveis/áreas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v/>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>externa ao ISA (CNAEF)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Área Científica de outra escola (CNAEF)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v/>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>externa ao ISA (CNAEF, FOS)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Área Científica de outra escola (CNAEF, FOS)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v/>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>externa ao ISA (área de formação)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Área Científica de outra escola (área de formação)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v/>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>associação de áreas</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Associação de diferentes áreas científicas atríbuidas a uma determinada uc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="0" scenarios="0" formatColumns="0" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>